--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Scgb1a1-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Scgb1a1-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01566566666666667</v>
+        <v>0.171683</v>
       </c>
       <c r="H2">
-        <v>0.046997</v>
+        <v>0.515049</v>
       </c>
       <c r="I2">
-        <v>0.006248199373358664</v>
+        <v>0.05260263278194677</v>
       </c>
       <c r="J2">
-        <v>0.006248199373358664</v>
+        <v>0.05260263278194677</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N2">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0001643902841111111</v>
+        <v>0.018889937124</v>
       </c>
       <c r="R2">
-        <v>0.001479512557</v>
+        <v>0.170009434116</v>
       </c>
       <c r="S2">
-        <v>0.006248199373358664</v>
+        <v>0.05260263278194677</v>
       </c>
       <c r="T2">
-        <v>0.006248199373358664</v>
+        <v>0.05260263278194677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>2.302894</v>
       </c>
       <c r="I3">
-        <v>0.3061672201994048</v>
+        <v>0.2351975975445997</v>
       </c>
       <c r="J3">
-        <v>0.3061672201994048</v>
+        <v>0.2351975975445997</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N3">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.008055267334888891</v>
+        <v>0.08446094034400001</v>
       </c>
       <c r="R3">
-        <v>0.07249740601400001</v>
+        <v>0.760148463096</v>
       </c>
       <c r="S3">
-        <v>0.3061672201994048</v>
+        <v>0.2351975975445997</v>
       </c>
       <c r="T3">
-        <v>0.3061672201994048</v>
+        <v>0.2351975975445997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8958566666666665</v>
+        <v>1.354395</v>
       </c>
       <c r="H4">
-        <v>2.68757</v>
+        <v>4.063185</v>
       </c>
       <c r="I4">
-        <v>0.3573094706014754</v>
+        <v>0.4149784359936907</v>
       </c>
       <c r="J4">
-        <v>0.3573094706014754</v>
+        <v>0.4149784359936907</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N4">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.00940082124111111</v>
+        <v>0.14902137306</v>
       </c>
       <c r="R4">
-        <v>0.08460739116999999</v>
+        <v>1.34119235754</v>
       </c>
       <c r="S4">
-        <v>0.3573094706014754</v>
+        <v>0.4149784359936907</v>
       </c>
       <c r="T4">
-        <v>0.3573094706014754</v>
+        <v>0.4149784359936907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,34 +723,34 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5691959999999999</v>
+        <v>0.5285906666666667</v>
       </c>
       <c r="H5">
-        <v>1.707588</v>
+        <v>1.585772</v>
       </c>
       <c r="I5">
-        <v>0.2270219433486131</v>
+        <v>0.1619569831062545</v>
       </c>
       <c r="J5">
-        <v>0.2270219433486131</v>
+        <v>0.1619569831062546</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N5">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.005972953091999999</v>
+        <v>0.058159773872</v>
       </c>
       <c r="R5">
-        <v>0.053756577828</v>
+        <v>0.523437964848</v>
       </c>
       <c r="S5">
-        <v>0.2270219433486131</v>
+        <v>0.1619569831062545</v>
       </c>
       <c r="T5">
-        <v>0.2270219433486131</v>
+        <v>0.1619569831062546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,34 +785,34 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2588793333333334</v>
+        <v>0.441472</v>
       </c>
       <c r="H6">
-        <v>0.7766380000000001</v>
+        <v>1.324416</v>
       </c>
       <c r="I6">
-        <v>0.103253166477148</v>
+        <v>0.1352643505735082</v>
       </c>
       <c r="J6">
-        <v>0.103253166477148</v>
+        <v>0.1352643505735082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N6">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.002716593430888889</v>
+        <v>0.04857428121600001</v>
       </c>
       <c r="R6">
-        <v>0.024449340878</v>
+        <v>0.437168530944</v>
       </c>
       <c r="S6">
-        <v>0.103253166477148</v>
+        <v>0.1352643505735082</v>
       </c>
       <c r="T6">
-        <v>0.103253166477148</v>
+        <v>0.1352643505735082</v>
       </c>
     </row>
   </sheetData>
